--- a/datasheets/runs.xlsx
+++ b/datasheets/runs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D030AF2B-4F73-F346-972E-531D3034EE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9C3D18-1D67-7A48-ACF1-740E35EECD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="16100" windowHeight="15780" xr2:uid="{B902C92A-E734-E94A-B744-9CAB04E3963A}"/>
   </bookViews>
